--- a/results/Cartpole/T20/Rewards_DDQN.xlsx
+++ b/results/Cartpole/T20/Rewards_DDQN.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Cartpole\T20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE8080C-1B92-4B7A-8130-572D94956C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96252829-EEB7-44C0-82B1-3CA7D63B83ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rewards_DDQN" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Rewards</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,6 +619,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rewards_DDQN!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -640,7 +659,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Rewards_DDQN!$A$1:$A$1050</c:f>
+              <c:f>Rewards_DDQN!$A$2:$A$1051</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1050"/>
@@ -3843,7 +3862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3901,7 +3920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3928,6 +3947,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4527,13 +4577,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4858,28 +4908,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1050"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>30</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -4889,17 +4939,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -4909,207 +4959,207 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -5119,132 +5169,132 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -5254,152 +5304,152 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -5409,422 +5459,422 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>129</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>70</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>28</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>301</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>187</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>499</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>290</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>127</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>183</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>277</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>148</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>401</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>355</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>361</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>273</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>499</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>432</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>206</v>
+        <v>432</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>379</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>457</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>56</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>237</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>417</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>333</v>
+        <v>417</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>482</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>452</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>499</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>361</v>
+        <v>499</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>499</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>326</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>484</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>384</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>499</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -5834,72 +5884,72 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>424</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>499</v>
+        <v>411</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>418</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>18</v>
+        <v>423</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>474</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>401</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>495</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
@@ -5934,27 +5984,27 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>380</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>499</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -5994,12 +6044,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>20</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>499</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -6024,12 +6074,12 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -6119,12 +6169,12 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>32</v>
+        <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>499</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
@@ -6244,12 +6294,12 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>36</v>
+        <v>499</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>499</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
@@ -6369,12 +6419,12 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>16</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>499</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -6494,12 +6544,12 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>26</v>
+        <v>499</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>499</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
@@ -6619,12 +6669,12 @@
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>27</v>
+        <v>499</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>499</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
@@ -6744,12 +6794,12 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>9</v>
+        <v>499</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>499</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -6869,12 +6919,12 @@
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>18</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>499</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -6994,12 +7044,12 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>21</v>
+        <v>499</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>499</v>
+        <v>21</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
@@ -7119,12 +7169,12 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>44</v>
+        <v>499</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>499</v>
+        <v>44</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -7244,12 +7294,12 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>11</v>
+        <v>499</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>499</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
@@ -7369,12 +7419,12 @@
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>10</v>
+        <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>499</v>
+        <v>10</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
@@ -7494,12 +7544,12 @@
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>14</v>
+        <v>499</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>499</v>
+        <v>14</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
@@ -7619,12 +7669,12 @@
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>20</v>
+        <v>499</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>499</v>
+        <v>20</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
@@ -7744,12 +7794,12 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>24</v>
+        <v>499</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>499</v>
+        <v>24</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
@@ -7869,12 +7919,12 @@
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>9</v>
+        <v>499</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>499</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
@@ -7994,12 +8044,12 @@
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>12</v>
+        <v>499</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>499</v>
+        <v>12</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
@@ -8119,12 +8169,12 @@
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>31</v>
+        <v>499</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>499</v>
+        <v>31</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
@@ -8244,12 +8294,12 @@
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>18</v>
+        <v>499</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>499</v>
+        <v>18</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
@@ -8314,12 +8364,12 @@
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>370</v>
+        <v>499</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>499</v>
+        <v>370</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
@@ -8369,12 +8419,12 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>32</v>
+        <v>499</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>499</v>
+        <v>32</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
@@ -8494,12 +8544,12 @@
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>93</v>
+        <v>499</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>499</v>
+        <v>93</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
@@ -8619,12 +8669,12 @@
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>12</v>
+        <v>499</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>499</v>
+        <v>12</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
@@ -8744,12 +8794,12 @@
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>12</v>
+        <v>499</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>499</v>
+        <v>12</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
@@ -8869,12 +8919,12 @@
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>11</v>
+        <v>499</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>499</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
@@ -8954,12 +9004,12 @@
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>97</v>
+        <v>499</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>499</v>
+        <v>97</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
@@ -8994,12 +9044,12 @@
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>42</v>
+        <v>499</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>499</v>
+        <v>42</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
@@ -9119,12 +9169,12 @@
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>15</v>
+        <v>499</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>499</v>
+        <v>15</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
@@ -9244,12 +9294,12 @@
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>29</v>
+        <v>499</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>499</v>
+        <v>29</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
@@ -9369,12 +9419,12 @@
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>18</v>
+        <v>499</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>499</v>
+        <v>18</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
@@ -9424,12 +9474,12 @@
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>351</v>
+        <v>499</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>499</v>
+        <v>351</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
@@ -9494,12 +9544,12 @@
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>29</v>
+        <v>499</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>499</v>
+        <v>29</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
@@ -9619,12 +9669,12 @@
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>11</v>
+        <v>499</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>499</v>
+        <v>11</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
@@ -9744,12 +9794,12 @@
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>29</v>
+        <v>499</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>499</v>
+        <v>29</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
@@ -9869,12 +9919,12 @@
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>27</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>499</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
@@ -9904,12 +9954,12 @@
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008">
-        <v>433</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>499</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
@@ -9994,12 +10044,12 @@
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026">
-        <v>13</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027">
-        <v>499</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
@@ -10114,6 +10164,11 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051">
         <v>499</v>
       </c>
     </row>

--- a/results/Cartpole/T20/Rewards_DDQN.xlsx
+++ b/results/Cartpole/T20/Rewards_DDQN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Cartpole\T20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96252829-EEB7-44C0-82B1-3CA7D63B83ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2981AF-750D-494D-88BE-A2B5DF0313DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3862,7 +3862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3920,7 +3920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3962,7 +3962,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4002,7 +4002,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4577,8 +4577,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
@@ -4912,7 +4912,7 @@
   <dimension ref="A1:A1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
